--- a/JobSchedule/Quartz.Web/Upload/中经贸交易白名单.xlsx
+++ b/JobSchedule/Quartz.Web/Upload/中经贸交易白名单.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD797F00-A3FE-47FD-B747-764CA7EBFF70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主体白名单" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="585">
   <si>
     <t>主体名称</t>
   </si>
@@ -1769,12 +1770,15 @@
   </si>
   <si>
     <t>中外合资企业</t>
+  </si>
+  <si>
+    <t>P值时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1812,16 +1816,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1834,7 +1907,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1909,6 +1982,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1944,6 +2034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2119,16 +2226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E549"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2144,8 +2251,11 @@
       <c r="E1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>219</v>
       </c>
@@ -2161,8 +2271,11 @@
       <c r="E2" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -2196,7 +2309,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2326,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2360,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>220</v>
       </c>
@@ -2264,7 +2377,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2394,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -2315,7 +2428,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2445,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -2349,7 +2462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>222</v>
       </c>
@@ -2383,7 +2496,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
